--- a/assets/files/bieu_mau_tao_goi_thau.xlsx
+++ b/assets/files/bieu_mau_tao_goi_thau.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tuank\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tuank\Revotech\VCC\cbms\test\assets\files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C67606C5-C28A-4099-AC10-7217105BDDCA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02B6F141-22F2-42DD-8A01-AC45576318E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-5475" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -63,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="79">
   <si>
     <r>
       <t>Giá gói thầu</t>
@@ -429,12 +429,6 @@
     <t>12</t>
   </si>
   <si>
-    <t>Không</t>
-  </si>
-  <si>
-    <t>Có nhiều phần</t>
-  </si>
-  <si>
     <t>Đơn vị thời gian thực hiện gói thầu</t>
   </si>
   <si>
@@ -454,6 +448,18 @@
   </si>
   <si>
     <t>Ta autotest</t>
+  </si>
+  <si>
+    <t>Gói thầu chia phần</t>
+  </si>
+  <si>
+    <t>Gói thầu không chia phần</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>N</t>
   </si>
 </sst>
 </file>
@@ -1185,6 +1191,36 @@
     <xf numFmtId="0" fontId="91" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="61" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1231,36 +1267,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="58" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1599,8 +1605,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:S2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K6" sqref="K6"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="N22" sqref="N22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1685,13 +1691,13 @@
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A2" s="20" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B2" s="20" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C2" s="20" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D2" t="s">
         <v>22</v>
@@ -1727,7 +1733,7 @@
         <v>65</v>
       </c>
       <c r="O2" t="s">
-        <v>68</v>
+        <v>76</v>
       </c>
       <c r="Q2">
         <v>12</v>
@@ -1736,7 +1742,7 @@
         <v>49</v>
       </c>
       <c r="S2" s="20" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
   </sheetData>
@@ -1810,7 +1816,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AL14"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="AH7" sqref="AH7"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1830,58 +1838,58 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:38" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="84" t="s">
+      <c r="A1" s="68" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="85"/>
-      <c r="D1" s="86" t="s">
+      <c r="B1" s="69"/>
+      <c r="D1" s="70" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="87"/>
-      <c r="G1" s="88" t="s">
+      <c r="E1" s="71"/>
+      <c r="G1" s="72" t="s">
         <v>26</v>
       </c>
-      <c r="H1" s="89"/>
-      <c r="J1" s="90" t="s">
+      <c r="H1" s="73"/>
+      <c r="J1" s="74" t="s">
         <v>31</v>
       </c>
-      <c r="K1" s="91"/>
-      <c r="M1" s="92" t="s">
+      <c r="K1" s="75"/>
+      <c r="M1" s="76" t="s">
         <v>34</v>
       </c>
-      <c r="N1" s="93"/>
-      <c r="P1" s="74" t="s">
+      <c r="N1" s="77"/>
+      <c r="P1" s="84" t="s">
         <v>37</v>
       </c>
-      <c r="Q1" s="75"/>
-      <c r="S1" s="76" t="s">
+      <c r="Q1" s="85"/>
+      <c r="S1" s="86" t="s">
         <v>40</v>
       </c>
-      <c r="T1" s="77"/>
-      <c r="V1" s="78" t="s">
+      <c r="T1" s="87"/>
+      <c r="V1" s="88" t="s">
         <v>43</v>
       </c>
-      <c r="W1" s="79"/>
-      <c r="Y1" s="80" t="s">
+      <c r="W1" s="89"/>
+      <c r="Y1" s="90" t="s">
         <v>47</v>
       </c>
-      <c r="Z1" s="81"/>
-      <c r="AB1" s="82" t="s">
+      <c r="Z1" s="91"/>
+      <c r="AB1" s="92" t="s">
         <v>50</v>
       </c>
-      <c r="AC1" s="83"/>
-      <c r="AE1" s="68" t="s">
+      <c r="AC1" s="93"/>
+      <c r="AE1" s="78" t="s">
         <v>55</v>
       </c>
-      <c r="AF1" s="69"/>
-      <c r="AH1" s="70" t="s">
+      <c r="AF1" s="79"/>
+      <c r="AH1" s="80" t="s">
         <v>14</v>
       </c>
-      <c r="AI1" s="71"/>
-      <c r="AK1" s="72" t="s">
-        <v>70</v>
-      </c>
-      <c r="AL1" s="73"/>
+      <c r="AI1" s="81"/>
+      <c r="AK1" s="82" t="s">
+        <v>68</v>
+      </c>
+      <c r="AL1" s="83"/>
     </row>
     <row r="2" spans="1:38" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="21" t="s">
@@ -2031,13 +2039,13 @@
         <v>1</v>
       </c>
       <c r="AH3" s="23" t="s">
-        <v>68</v>
-      </c>
-      <c r="AI3" s="24">
-        <v>0</v>
+        <v>76</v>
+      </c>
+      <c r="AI3" s="24" t="s">
+        <v>78</v>
       </c>
       <c r="AK3" s="23" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="AL3" s="24">
         <v>1</v>
@@ -2111,10 +2119,10 @@
         <v>2</v>
       </c>
       <c r="AH4" s="23" t="s">
-        <v>69</v>
-      </c>
-      <c r="AI4" s="24">
-        <v>1</v>
+        <v>75</v>
+      </c>
+      <c r="AI4" s="24" t="s">
+        <v>77</v>
       </c>
       <c r="AK4" s="23" t="s">
         <v>49</v>
@@ -2161,7 +2169,7 @@
         <v>3</v>
       </c>
       <c r="AK5" s="23" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="AL5" s="24">
         <v>3</v>
@@ -2259,11 +2267,6 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="D1:E1"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="J1:K1"/>
-    <mergeCell ref="M1:N1"/>
     <mergeCell ref="AE1:AF1"/>
     <mergeCell ref="AH1:AI1"/>
     <mergeCell ref="AK1:AL1"/>
@@ -2272,6 +2275,11 @@
     <mergeCell ref="V1:W1"/>
     <mergeCell ref="Y1:Z1"/>
     <mergeCell ref="AB1:AC1"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="J1:K1"/>
+    <mergeCell ref="M1:N1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2420,9 +2428,9 @@
         <f>IF(LEN(Input!N2)=0, "", Input!N2)</f>
         <v>10</v>
       </c>
-      <c r="O2">
+      <c r="O2" t="str">
         <f>IFERROR(VLOOKUP(Input!O2,MULTI_PART_MAP,2,FALSE),"")</f>
-        <v>0</v>
+        <v>N</v>
       </c>
       <c r="P2" t="str">
         <f>IF(LEN(Input!P2)=0, "", Input!P2)</f>
